--- a/biology/Médecine/Comité_permanent_des_médecins_européens/Comité_permanent_des_médecins_européens.xlsx
+++ b/biology/Médecine/Comité_permanent_des_médecins_européens/Comité_permanent_des_médecins_européens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_permanent_des_m%C3%A9decins_europ%C3%A9ens</t>
+          <t>Comité_permanent_des_médecins_européens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Comité permanent des médecins européens (CPME) (en anglais : Standing Committee of European Doctors) a pour objectif de promouvoir les plus hautes normes de formation et la pratique médicale afin d'obtenir la meilleure qualité de soins de santé pour tous les patients en Europe.
-Le CPME représente les associations médicales nationales de 27 pays en Europe et travaille en étroite collaboration avec les associations médicales nationales des pays qui ont demandé à adhérer à l'UE ainsi que les associations spécialisées médicales européennes[1].
+Le CPME représente les associations médicales nationales de 27 pays en Europe et travaille en étroite collaboration avec les associations médicales nationales des pays qui ont demandé à adhérer à l'UE ainsi que les associations spécialisées médicales européennes.
 C'est une organisation internationale, association ayant un but non lucratif composée des associations médicales nationales de l'Union européenne.
 Le CPME a gagné en visibilité, au-delà des milieux spécialisés de la médecine en Europe. Cela est notamment souligné par son introduction dans le Baromètre de transparence des ONG, à partir de l'édition 2011/2012.
-Il prend part à l'initiative One Health[2].
+Il prend part à l'initiative One Health.
 </t>
         </is>
       </c>
